--- a/banco_phrasal.xlsx
+++ b/banco_phrasal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Desktop\Projetos\Tradutop-Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>id_giria</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>titulo</t>
   </si>
@@ -45,22 +42,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>All mouth and no trousers</t>
-  </si>
-  <si>
-    <t>Toda a boca e sem calças.</t>
-  </si>
-  <si>
-    <t>Todas as conversas, sem ação.</t>
-  </si>
-  <si>
-    <t>Todas as Dont listen to him. Hes all mouth and no trousers, sem ação.</t>
-  </si>
-  <si>
-    <t>Não o escute. Ele é toda boca e sem calças.</t>
-  </si>
-  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>id_phrasal</t>
+  </si>
+  <si>
+    <t>Give up</t>
+  </si>
+  <si>
+    <t>Desistir.</t>
+  </si>
+  <si>
+    <t>I want to Give Up.</t>
+  </si>
+  <si>
+    <t>Eu quero desistir.</t>
   </si>
 </sst>
 </file>
@@ -440,11 +437,11 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
@@ -455,38 +452,38 @@
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -498,7 +495,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/banco_phrasal.xlsx
+++ b/banco_phrasal.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>titulo</t>
   </si>
@@ -58,6 +58,165 @@
   </si>
   <si>
     <t>Eu quero desistir.</t>
+  </si>
+  <si>
+    <t>Act up</t>
+  </si>
+  <si>
+    <t>Agir</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Comportar-se mal, não funcionar como deveria</t>
+  </si>
+  <si>
+    <t>The babysitter had a difficult time, the children acted up all evening.</t>
+  </si>
+  <si>
+    <t>A babá teve um tempo difícil, as crianças agiram a noite toda.</t>
+  </si>
+  <si>
+    <t>Ask around</t>
+  </si>
+  <si>
+    <t>Pergunte por aí</t>
+  </si>
+  <si>
+    <t>Convidar alguém para sair</t>
+  </si>
+  <si>
+    <t>He asked her out last night.</t>
+  </si>
+  <si>
+    <t>Ele a chamou para sair ontem a noite</t>
+  </si>
+  <si>
+    <t>Blow up</t>
+  </si>
+  <si>
+    <t>Explodir</t>
+  </si>
+  <si>
+    <t>Explodir (bomba, etc.); estourar (tempestade, escândalo, crise, guerra, etc.); perder a paciência</t>
+  </si>
+  <si>
+    <t>There was a huge bang as the fuel tank blew up.</t>
+  </si>
+  <si>
+    <t>Houve uma explosão enorme quando o tanque de combustível explodiu.</t>
+  </si>
+  <si>
+    <t>Break down</t>
+  </si>
+  <si>
+    <t>demolir</t>
+  </si>
+  <si>
+    <t>Quebrar, parar de funcionar</t>
+  </si>
+  <si>
+    <t>Our car broke down on the road.</t>
+  </si>
+  <si>
+    <t>Nosso carro quebrou na estrada.</t>
+  </si>
+  <si>
+    <t>Break up</t>
+  </si>
+  <si>
+    <t>Rompimento</t>
+  </si>
+  <si>
+    <t>Separar-se, terminar um relacionamento, uma parceria, etc.</t>
+  </si>
+  <si>
+    <t>They broke up four years ago.</t>
+  </si>
+  <si>
+    <t>Eles terminaram há quatro anos.</t>
+  </si>
+  <si>
+    <t>Cheer up</t>
+  </si>
+  <si>
+    <t>Anime-se</t>
+  </si>
+  <si>
+    <t>Animar-se</t>
+  </si>
+  <si>
+    <t>She cheered up when he got home.</t>
+  </si>
+  <si>
+    <t>Ela se animou quando chegou em casa.</t>
+  </si>
+  <si>
+    <t>Chip in</t>
+  </si>
+  <si>
+    <t>Sem Tradução</t>
+  </si>
+  <si>
+    <t>Contribuir com dinheiro, "fazer uma vaquinha"</t>
+  </si>
+  <si>
+    <t>If everyone chips in we'll be able to buy her a nice present.</t>
+  </si>
+  <si>
+    <t>Se todos mexerem, poderemos comprá-lo um bom presente.</t>
+  </si>
+  <si>
+    <t>Come apart</t>
+  </si>
+  <si>
+    <t>Separar</t>
+  </si>
+  <si>
+    <t>Separar-se, desfazer-se em pedaços, quebrar, desmoronar</t>
+  </si>
+  <si>
+    <t>The top and the bottom come apart if you pull hard enough.</t>
+  </si>
+  <si>
+    <t>O topo e o fundo se aparecem se você puxar o suficiente.</t>
+  </si>
+  <si>
+    <t>Come off</t>
+  </si>
+  <si>
+    <t>Saia</t>
+  </si>
+  <si>
+    <t>Sair, desaparecer</t>
+  </si>
+  <si>
+    <t>That mark on your dress won't come off.</t>
+  </si>
+  <si>
+    <t>Essa marca no seu vestido não vai sair.</t>
   </si>
 </sst>
 </file>
@@ -435,10 +594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -447,7 +606,7 @@
     <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -498,7 +657,215 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>